--- a/assets/market/liqudationPrices.xlsx
+++ b/assets/market/liqudationPrices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CD7E7A-B6CF-4F7C-8DCA-2E43C0148E5E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE2C7BD-9AF7-4E3D-BE8E-D9D46DEA61E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +417,7 @@
     <col min="13" max="13" width="22.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="1" customWidth="1"/>
     <col min="15" max="15" width="20" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -478,11 +479,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K2" s="1">
         <f>H2/J2</f>
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L2" s="1">
         <f>$C$2</f>
@@ -494,11 +495,11 @@
       </c>
       <c r="N2" s="1">
         <f>(K2 +M2 - I2*$B$21) / (I2 *L2 - I2) / $B$21 * 100 - 100</f>
-        <v>-1.6064257028112365</v>
+        <v>-0.40160642570280913</v>
       </c>
       <c r="O2" s="1">
         <f>(K2 +M2 + I2*$B$21) / (I2 *L2 + I2) / $B$21 * 100 - 100</f>
-        <v>1.5936254980079667</v>
+        <v>0.39840637450198813</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -514,36 +515,7 @@
       <c r="D3" s="1">
         <v>50</v>
       </c>
-      <c r="H3" s="1">
-        <v>250000</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I4" si="0">H3/$B$21</f>
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>50</v>
-      </c>
-      <c r="K3" s="1">
-        <f>H3/J3</f>
-        <v>5000</v>
-      </c>
-      <c r="L3" s="1">
-        <f>$C$3</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M3" s="1">
-        <f>$D$3</f>
-        <v>50</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N15" si="1">(K3 +M3 - I3*$B$21) / (I3 *L3 - I3) / $B$21 * 100 - 100</f>
-        <v>-1.5276381909547609</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" ref="O3:O15" si="2">(K3 +M3 + I3*$B$21) / (I3 *L3 + I3) / $B$21 * 100 - 100</f>
-        <v>1.5124378109452721</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -559,34 +531,34 @@
         <v>1300</v>
       </c>
       <c r="H4" s="1">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>H4/$B$21</f>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K4" s="1">
         <f>H4/J4</f>
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="L4" s="1">
-        <f>$C$4</f>
-        <v>0.01</v>
+        <f>$C$2</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M4" s="1">
-        <f>$D$4</f>
-        <v>1300</v>
+        <f>$D$2</f>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.1414141414141454</v>
+        <f>(K4 +M4 - I4*$B$21) / (I4 *L4 - I4) / $B$21 * 100 - 100</f>
+        <v>-0.60240963855422081</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1188118811881225</v>
+        <f>(K4 +M4 + I4*$B$21) / (I4 *L4 + I4) / $B$21 * 100 - 100</f>
+        <v>0.59760956175298929</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -602,6 +574,36 @@
       <c r="D5" s="1">
         <v>16300</v>
       </c>
+      <c r="H5" s="1">
+        <v>250000</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5" si="0">H5/$B$21</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100</v>
+      </c>
+      <c r="K5" s="1">
+        <f>H5/J5</f>
+        <v>2500</v>
+      </c>
+      <c r="L5" s="1">
+        <f>$C$3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <f>$D$3</f>
+        <v>50</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5" si="1">(K5 +M5 - I5*$B$21) / (I5 *L5 - I5) / $B$21 * 100 - 100</f>
+        <v>-0.52261306532662388</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5" si="2">(K5 +M5 + I5*$B$21) / (I5 *L5 + I5) / $B$21 * 100 - 100</f>
+        <v>0.51741293532336385</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -616,36 +618,6 @@
       <c r="D6" s="1">
         <v>203800</v>
       </c>
-      <c r="H6" s="1">
-        <v>50000</v>
-      </c>
-      <c r="I6" s="1">
-        <f>H6/$B$21</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1">
-        <f>H6/J6</f>
-        <v>2500</v>
-      </c>
-      <c r="L6" s="1">
-        <f>$C$2</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M6" s="1">
-        <f>$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="1"/>
-        <v>-4.6184738955823263</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.581673306772899</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -661,98 +633,98 @@
         <v>2203800</v>
       </c>
       <c r="H7" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:I9" si="3">H7/$B$21</f>
-        <v>5</v>
+        <f>H7/$B$21</f>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1">
         <f>H7/J7</f>
-        <v>12500</v>
+        <v>1000</v>
       </c>
       <c r="L7" s="1">
+        <f>$C$2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <f>$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f>(K7 +M7 - I7*$B$21) / (I7 *L7 - I7) / $B$21 * 100 - 100</f>
+        <v>-1.6064257028112365</v>
+      </c>
+      <c r="O7" s="1">
+        <f>(K7 +M7 + I7*$B$21) / (I7 *L7 + I7) / $B$21 * 100 - 100</f>
+        <v>1.5936254980079667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>250000</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I9" si="3">H8/$B$21</f>
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1">
+        <f>H8/J8</f>
+        <v>5000</v>
+      </c>
+      <c r="L8" s="1">
         <f>$C$3</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M8" s="1">
         <f>$D$3</f>
         <v>50</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="1"/>
-        <v>-4.5427135678392006</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4975124378109399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H8" s="1">
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:N20" si="4">(K8 +M8 - I8*$B$21) / (I8 *L8 - I8) / $B$21 * 100 - 100</f>
+        <v>-1.5276381909547609</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:O20" si="5">(K8 +M8 + I8*$B$21) / (I8 *L8 + I8) / $B$21 * 100 - 100</f>
+        <v>1.5124378109452721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
         <v>1000000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J8" s="1">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1">
-        <f>H8/J8</f>
-        <v>50000</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J9" s="1">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1">
+        <f>H9/J9</f>
+        <v>20000</v>
+      </c>
+      <c r="L9" s="1">
         <f>$C$4</f>
         <v>0.01</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M9" s="1">
         <f>$D$4</f>
         <v>1300</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="1"/>
-        <v>-4.1717171717171766</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="2"/>
-        <v>4.089108910891099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="1">
-        <v>7500000</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J9" s="1">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1">
-        <f>H9/J9</f>
-        <v>375000</v>
-      </c>
-      <c r="L9" s="1">
-        <f>$C$5</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M9" s="1">
-        <f>$D$5</f>
-        <v>16300</v>
-      </c>
       <c r="N9" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.7870085470085542</v>
+        <f t="shared" si="4"/>
+        <v>-1.1414141414141454</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6510569105691104</v>
+        <f t="shared" si="5"/>
+        <v>1.1188118811881225</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -764,11 +736,11 @@
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1">
         <f>H11/J11</f>
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L11" s="1">
         <f>$C$2</f>
@@ -779,12 +751,12 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="1"/>
-        <v>-9.6385542168674618</v>
+        <f t="shared" si="4"/>
+        <v>-4.6184738955823263</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
-        <v>9.5617529880478003</v>
+        <f>(K11 +M11 + I11*$B$21) / (I11 *L11 + I11) / $B$21 * 100 - 100</f>
+        <v>4.581673306772899</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -792,15 +764,15 @@
         <v>250000</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12:I15" si="4">H12/$B$21</f>
+        <f t="shared" ref="I12:I14" si="6">H12/$B$21</f>
         <v>5</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1">
         <f>H12/J12</f>
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="L12" s="1">
         <f>$C$3</f>
@@ -811,12 +783,12 @@
         <v>50</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="1"/>
-        <v>-9.5678391959798859</v>
+        <f t="shared" si="4"/>
+        <v>-4.5427135678392006</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
-        <v>9.4726368159203815</v>
+        <f t="shared" si="5"/>
+        <v>4.4975124378109399</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,15 +796,15 @@
         <v>1000000</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1">
         <f>H13/J13</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="L13" s="1">
         <f>$C$4</f>
@@ -843,12 +815,12 @@
         <v>1300</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="1"/>
-        <v>-9.2222222222222143</v>
+        <f t="shared" si="4"/>
+        <v>-4.1717171717171766</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
-        <v>9.0396039603960503</v>
+        <f t="shared" si="5"/>
+        <v>4.089108910891099</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -856,15 +828,15 @@
         <v>7500000</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="J14" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1">
         <f>H14/J14</f>
-        <v>750000</v>
+        <v>375000</v>
       </c>
       <c r="L14" s="1">
         <f>$C$5</f>
@@ -875,172 +847,172 @@
         <v>16300</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>-2.7870085470085542</v>
+      </c>
+      <c r="O14" s="1">
+        <f>(K14 +M14 + I14*$B$21) / (I14 *L14 + I14) / $B$21 * 100 - 100</f>
+        <v>2.6510569105691104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I16" s="1">
+        <f>H16/$B$21</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1">
+        <f>H16/J16</f>
+        <v>5000</v>
+      </c>
+      <c r="L16" s="1">
+        <f>$C$2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="1">
+        <f>$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.6385542168674618</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="5"/>
+        <v>9.5617529880478003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>250000</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ref="I17:I20" si="7">H17/$B$21</f>
+        <v>5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
+        <f>H17/J17</f>
+        <v>25000</v>
+      </c>
+      <c r="L17" s="1">
+        <f>$C$3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="1">
+        <f>$D$3</f>
+        <v>50</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.5678391959798859</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="5"/>
+        <v>9.4726368159203815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1">
+        <f>H18/J18</f>
+        <v>100000</v>
+      </c>
+      <c r="L18" s="1">
+        <f>$C$4</f>
+        <v>0.01</v>
+      </c>
+      <c r="M18" s="1">
+        <f>$D$4</f>
+        <v>1300</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.2222222222222143</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="5"/>
+        <v>9.0396039603960503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>7500000</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1">
+        <f>H19/J19</f>
+        <v>750000</v>
+      </c>
+      <c r="L19" s="1">
+        <f>$C$5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <f>$D$5</f>
+        <v>16300</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="4"/>
         <v>-7.9152136752136784</v>
       </c>
-      <c r="O14" s="1">
-        <f t="shared" si="2"/>
+      <c r="O19" s="1">
+        <f t="shared" si="5"/>
         <v>7.5291056910569125</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H15" s="1">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
         <v>40000000</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="4"/>
+      <c r="I20" s="1">
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J20" s="1">
         <v>10</v>
       </c>
-      <c r="K15" s="1">
-        <f>H15/J15</f>
+      <c r="K20" s="1">
+        <f>H20/J20</f>
         <v>4000000</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L20" s="1">
         <f>$C$6</f>
         <v>0.05</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M20" s="1">
         <f>$D$6</f>
         <v>203800</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="1"/>
+      <c r="N20" s="1">
+        <f t="shared" si="4"/>
         <v>-5.7994736842105254</v>
       </c>
-      <c r="O15" s="1">
-        <f t="shared" si="2"/>
+      <c r="O20" s="1">
+        <f t="shared" si="5"/>
         <v>5.2471428571428476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H17" s="1">
-        <v>50000</v>
-      </c>
-      <c r="I17" s="1">
-        <f>H17/$B$21</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>5</v>
-      </c>
-      <c r="K17" s="1">
-        <f>H17/J17</f>
-        <v>10000</v>
-      </c>
-      <c r="L17" s="1">
-        <f>$C$2</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M17" s="1">
-        <f>$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" ref="N17:N22" si="5">(K17 +M17 - I17*$B$21) / (I17 *L17 - I17) / $B$21 * 100 - 100</f>
-        <v>-19.678714859437747</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" ref="O17:O22" si="6">(K17 +M17 + I17*$B$21) / (I17 *L17 + I17) / $B$21 * 100 - 100</f>
-        <v>19.521912350597589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H18" s="1">
-        <v>250000</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" ref="I18:I22" si="7">H18/$B$21</f>
-        <v>5</v>
-      </c>
-      <c r="J18" s="1">
-        <v>5</v>
-      </c>
-      <c r="K18" s="1">
-        <f>H18/J18</f>
-        <v>50000</v>
-      </c>
-      <c r="L18" s="1">
-        <f>$C$3</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M18" s="1">
-        <f>$D$3</f>
-        <v>50</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="5"/>
-        <v>-19.618090452261299</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="6"/>
-        <v>19.422885572139293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H19" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5</v>
-      </c>
-      <c r="K19" s="1">
-        <f>H19/J19</f>
-        <v>200000</v>
-      </c>
-      <c r="L19" s="1">
-        <f>$C$4</f>
-        <v>0.01</v>
-      </c>
-      <c r="M19" s="1">
-        <f>$D$4</f>
-        <v>1300</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="5"/>
-        <v>-19.323232323232318</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="6"/>
-        <v>18.940594059405953</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H20" s="1">
-        <v>7500000</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="J20" s="1">
-        <v>5</v>
-      </c>
-      <c r="K20" s="1">
-        <f>H20/J20</f>
-        <v>1500000</v>
-      </c>
-      <c r="L20" s="1">
-        <f>$C$5</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M20" s="1">
-        <f>$D$5</f>
-        <v>16300</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="5"/>
-        <v>-18.171623931623941</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="6"/>
-        <v>17.285203252032517</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1050,66 +1022,196 @@
       <c r="B21" s="1">
         <v>50000</v>
       </c>
-      <c r="H21" s="1">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I22" s="1">
+        <f>H22/$B$21</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" ref="K22:K27" si="8">H22/J22</f>
+        <v>10000</v>
+      </c>
+      <c r="L22" s="1">
+        <f>$C$2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M22" s="1">
+        <f>$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ref="N22:N27" si="9">(K22 +M22 - I22*$B$21) / (I22 *L22 - I22) / $B$21 * 100 - 100</f>
+        <v>-19.678714859437747</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:O27" si="10">(K22 +M22 + I22*$B$21) / (I22 *L22 + I22) / $B$21 * 100 - 100</f>
+        <v>19.521912350597589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>250000</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" ref="I23:I27" si="11">H23/$B$21</f>
+        <v>5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+      <c r="L23" s="1">
+        <f>$C$3</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M23" s="1">
+        <f>$D$3</f>
+        <v>50</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="9"/>
+        <v>-19.618090452261299</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="10"/>
+        <v>19.422885572139293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="L24" s="1">
+        <f>$C$4</f>
+        <v>0.01</v>
+      </c>
+      <c r="M24" s="1">
+        <f>$D$4</f>
+        <v>1300</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="9"/>
+        <v>-19.323232323232318</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="10"/>
+        <v>18.940594059405953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>7500000</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="8"/>
+        <v>1500000</v>
+      </c>
+      <c r="L25" s="1">
+        <f>$C$5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <f>$D$5</f>
+        <v>16300</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="9"/>
+        <v>-18.171623931623941</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="10"/>
+        <v>17.285203252032517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
         <v>40000000</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="7"/>
+      <c r="I26" s="1">
+        <f t="shared" si="11"/>
         <v>800</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J26" s="1">
         <v>5</v>
       </c>
-      <c r="K21" s="1">
-        <f>H21/J21</f>
+      <c r="K26" s="1">
+        <f t="shared" si="8"/>
         <v>8000000</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L26" s="1">
         <f>$C$6</f>
         <v>0.05</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M26" s="1">
         <f>$D$6</f>
         <v>203800</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="5"/>
+      <c r="N26" s="1">
+        <f t="shared" si="9"/>
         <v>-16.32578947368421</v>
       </c>
-      <c r="O21" s="1">
-        <f t="shared" si="6"/>
+      <c r="O26" s="1">
+        <f t="shared" si="10"/>
         <v>14.77095238095238</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H22" s="1">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
         <v>100000000</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="7"/>
+      <c r="I27" s="1">
+        <f t="shared" si="11"/>
         <v>2000</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J27" s="1">
         <v>5</v>
       </c>
-      <c r="K22" s="1">
-        <f>H22/J22</f>
+      <c r="K27" s="1">
+        <f t="shared" si="8"/>
         <v>20000000</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L27" s="1">
         <f>$C$7</f>
         <v>0.1</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M27" s="1">
         <f>$D$7</f>
         <v>2203800</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" si="5"/>
+      <c r="N27" s="1">
+        <f t="shared" si="9"/>
         <v>-13.559777777777782</v>
       </c>
-      <c r="O22" s="1">
-        <f t="shared" si="6"/>
+      <c r="O27" s="1">
+        <f t="shared" si="10"/>
         <v>11.094363636363624</v>
       </c>
     </row>
